--- a/output_results2.xlsx
+++ b/output_results2.xlsx
@@ -670,33 +670,33 @@
         <v>-0.06400599381225539</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>3.386185169219971</v>
+        <v>2.567609310150146</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[[0 1 0 1 0 1 1]
- [1 0 1 0 1 0 0]
+          <t>[[0 1 0 1 1 1 0]
+ [1 0 1 0 0 0 1]
  [0 0 0 0 0 0 0]]</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>4693</v>
+        <v>5099</v>
       </c>
       <c r="J2" t="n">
-        <v>5307</v>
+        <v>4901</v>
       </c>
       <c r="K2" t="n">
-        <v>4874</v>
+        <v>4858</v>
       </c>
       <c r="L2" t="n">
-        <v>5126</v>
+        <v>5142</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[{'container_index': 0, 'details': "Total volume packed:  14.0 (1.0)\nProfit:  -46.467929843806985\nRevenue:  453.532070156193\nExpense:  500.0\nNumber of container type  0  used: 1\nContainer index  0  utilization:  0.5833333333333334\nCenter of gravity: [0.89858823 1.20282354]\nItems' position in container index  0\nItem x y z\n0 0.0 0.0 2.0\n1 0.0 2.0 1.0\n2 0.0 0.0 0.0\n3 0.0 2.0 0.0\nItem's rotation in container index  0\nItem lx ly lz wx wy wz hx hy hz\n1 1 0 0 0 1 0 0 0 1\n3 1 0 0 0 1 0 0 0 1\n5 1 0 0 0 1 0 0 0 1\n6 1 0 0 0 1 0 0 0 1\n\n"}, {'container_index': 1, 'details': "Total volume packed:  15.0 (1.0)\nProfit:  -14.07278197550744\nRevenue:  485.92721802449256\nExpense:  500.0\nNumber of container type  0  used: 1\nContainer index  0  utilization:  0.625\nCenter of gravity: [0.80535738 1.01431363]\nItems' position in container index  0\nItem x y z\n0 0.0 0.0 3.0\n1 0.0 0.0 0.0\n2 0.0 2.0 0.0\nItem's rotation in container index  0\nItem lx ly lz wx wy wz hx hy hz\n0 0 1 0 1 0 0 0 0 1\n2 0 1 0 0 0 1 1 0 0\n4 1 0 0 0 1 0 0 0 1\n\n"}, {'container_index': 2, 'details': 'Total volume packed:  0.0\nProfit:  0.0\nRevenue:  0.0\nExpense:  0.0\n\n'}]</t>
+          <t>[{'container_index': 0, 'details': "Total volume packed:  14.0 (1.0)\nProfit:  -46.467929843806985\nRevenue:  453.532070156193\nExpense:  500.0\nNumber of container type  0  used: 1\nContainer index  0  utilization:  0.5833333333333334\nCenter of gravity: [0.96619608 1.20282354]\nItems' position in container index  0\nItem x y z\n0 0.0 0.0 0.0\n1 0.0 2.0 0.0\n2 1.0 2.0 0.0\n3 0.0 0.0 2.0\nItem's rotation in container index  0\nItem lx ly lz wx wy wz hx hy hz\n1 1 0 0 0 1 0 0 0 1\n3 1 0 0 0 1 0 0 0 1\n4 1 0 0 0 1 0 0 0 1\n5 1 0 0 0 1 0 0 0 1\n\n"}, {'container_index': 1, 'details': "Total volume packed:  15.0 (1.0)\nProfit:  -14.07278197550744\nRevenue:  485.92721802449256\nExpense:  500.0\nNumber of container type  0  used: 1\nContainer index  0  utilization:  0.625\nCenter of gravity: [0.80535738 1.01431363]\nItems' position in container index  0\nItem x y z\n0 0.0 0.0 3.0\n1 0.0 0.0 0.0\n2 0.0 2.0 0.0\nItem's rotation in container index  0\nItem lx ly lz wx wy wz hx hy hz\n0 0 1 0 1 0 0 0 0 1\n2 0 1 0 0 0 1 1 0 0\n6 1 0 0 0 1 0 0 0 1\n\n"}, {'container_index': 2, 'details': 'Total volume packed:  0.0\nProfit:  0.0\nRevenue:  0.0\nExpense:  0.0\n\n'}]</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -715,7 +715,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[[0.89858823, 1.20282354], [0.80535738, 1.01431363], [0, 0]]</t>
+          <t>[[0.96619608, 1.20282354], [0.80535738, 1.01431363], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
         <v>-0.06400599381225539</v>
       </c>
       <c r="C2" t="n">
-        <v>3.386185169219971</v>
+        <v>2.567609310150146</v>
       </c>
       <c r="D2" t="n">
         <v>0.6041666666666667</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[[0.89858823, 1.20282354], [0.80535738, 1.01431363], [0, 0]]</t>
+          <t>[[0.96619608, 1.20282354], [0.80535738, 1.01431363], [0, 0]]</t>
         </is>
       </c>
     </row>
